--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_validation_tool/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91392DAF-722F-C742-8769-B3884ADE340B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96732690-2145-9341-8412-8ACA74CCF903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_validation_tool/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96732690-2145-9341-8412-8ACA74CCF903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFF0A84-B566-304D-8C43-E4292DF184C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>Sno</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Empno</t>
   </si>
   <si>
-    <t>Count_Validation</t>
-  </si>
-  <si>
     <t>Table_Name</t>
   </si>
   <si>
@@ -46,15 +43,6 @@
     <t>select * from emp</t>
   </si>
   <si>
-    <t>Duplicate</t>
-  </si>
-  <si>
-    <t>Key_column</t>
-  </si>
-  <si>
-    <t>Datacheck</t>
-  </si>
-  <si>
     <t>emp</t>
   </si>
   <si>
@@ -89,6 +77,33 @@
   </si>
   <si>
     <t>Target_Query</t>
+  </si>
+  <si>
+    <t>count_validation</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>Null_value_check</t>
+  </si>
+  <si>
+    <t>Uniquess_check</t>
+  </si>
+  <si>
+    <t>records_present_only_in_source</t>
+  </si>
+  <si>
+    <t>records_present_only_in_target</t>
+  </si>
+  <si>
+    <t>data_compare</t>
+  </si>
+  <si>
+    <t>['bonus']</t>
+  </si>
+  <si>
+    <t>Key_columns</t>
   </si>
 </sst>
 </file>
@@ -139,7 +154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +169,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,22 +451,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="23.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="23.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="38.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="49.1640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -454,40 +476,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -497,28 +519,28 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -529,28 +551,28 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -560,28 +582,150 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
